--- a/branches/2022march/StructureDefinition-hiv-patient.xlsx
+++ b/branches/2022march/StructureDefinition-hiv-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-23T08:06:35+00:00</t>
+    <t>2022-03-25T09:06:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/2022march/StructureDefinition-hiv-patient.xlsx
+++ b/branches/2022march/StructureDefinition-hiv-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-25T09:06:52+00:00</t>
+    <t>2022-03-29T15:31:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
